--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ATInnovation\SVN\ATINTimekeeping\branches\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AT-Git\HeThongChamCong\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="66">
   <si>
     <t>Form</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Chức năng chi tiết</t>
   </si>
   <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
     <t>Tiến độ</t>
   </si>
   <si>
@@ -207,6 +204,24 @@
   </si>
   <si>
     <t>Tiến độ thực hiện phát triển phần mềm chấm công ATSmartface v1.0</t>
+  </si>
+  <si>
+    <t>Sáng</t>
+  </si>
+  <si>
+    <t>Ưu Tiên</t>
+  </si>
+  <si>
+    <t>xong front-end - Xong backend</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>xong front-end - Đang làm backend</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa trong quá trình xây dựng các form khác</t>
   </si>
 </sst>
 </file>
@@ -409,11 +424,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,7 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,6 +461,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,596 +744,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E46"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="D21" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="31"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="19"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="19"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="19"/>
+      <c r="E46" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AT-Git\HeThongChamCong\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ATInnovation\Github\PhamMemChamCong\HeThongChamCong\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="66">
   <si>
     <t>Form</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Hoạt động từ máy chủ</t>
   </si>
   <si>
-    <t>đang làm</t>
-  </si>
-  <si>
     <t>ATIN Smartface About</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>Chỉnh sửa trong quá trình xây dựng các form khác</t>
+  </si>
+  <si>
+    <t>Chỉ cần làm thông tin giới thiệu phần mềm, phiên bản, tính năng, số điện thoại</t>
   </si>
 </sst>
 </file>
@@ -746,30 +746,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -777,219 +777,219 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -997,73 +997,65 @@
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
         <v>10</v>
@@ -1072,14 +1064,14 @@
         <v>11</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
         <v>12</v>
@@ -1088,14 +1080,14 @@
         <v>11</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>13</v>
@@ -1104,14 +1096,14 @@
         <v>11</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
         <v>14</v>
@@ -1120,14 +1112,14 @@
         <v>11</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -1145,7 +1137,7 @@
       </c>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
         <v>19</v>
@@ -1157,11 +1149,11 @@
         <v>17</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
         <v>20</v>
@@ -1173,11 +1165,11 @@
         <v>17</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>21</v>
@@ -1189,11 +1181,11 @@
         <v>17</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="28"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
         <v>22</v>
@@ -1205,11 +1197,11 @@
         <v>17</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="28"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
         <v>23</v>
@@ -1221,11 +1213,11 @@
         <v>17</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
         <v>24</v>
@@ -1237,11 +1229,11 @@
         <v>17</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
         <v>25</v>
@@ -1253,11 +1245,11 @@
         <v>17</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1267,7 @@
       </c>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
         <v>29</v>
@@ -1291,7 +1283,7 @@
       </c>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
         <v>31</v>
@@ -1307,7 +1299,7 @@
       </c>
       <c r="F38" s="28"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
         <v>32</v>
@@ -1323,7 +1315,7 @@
       </c>
       <c r="F39" s="28"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
         <v>33</v>
@@ -1339,7 +1331,7 @@
       </c>
       <c r="F40" s="28"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
         <v>34</v>
@@ -1355,7 +1347,7 @@
       </c>
       <c r="F41" s="28"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
         <v>35</v>
@@ -1371,7 +1363,7 @@
       </c>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12" t="s">
         <v>36</v>
@@ -1387,7 +1379,7 @@
       </c>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>37</v>
       </c>
@@ -1403,24 +1395,28 @@
       </c>
       <c r="F44" s="28"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>40</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>41</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>3</v>
@@ -1429,7 +1425,7 @@
         <v>30</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46" s="17"/>
     </row>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>Form</t>
   </si>
@@ -53,15 +53,9 @@
     <t>Tải nhân viên lên máy chấm công</t>
   </si>
   <si>
-    <t>làm</t>
-  </si>
-  <si>
     <t>Hoạt động khác</t>
   </si>
   <si>
-    <t>Chưa làm</t>
-  </si>
-  <si>
     <t>Dữ liệu từ ổ đĩa USB</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>Chấm công thủ công</t>
   </si>
   <si>
-    <t>Chưa Làm</t>
-  </si>
-  <si>
     <t>Chấm công theo ca</t>
   </si>
   <si>
@@ -222,6 +213,18 @@
   </si>
   <si>
     <t>Chỉ cần làm thông tin giới thiệu phần mềm, phiên bản, tính năng, số điện thoại</t>
+  </si>
+  <si>
+    <t>Chưa cần</t>
+  </si>
+  <si>
+    <t>Hiện tại không dùng chức năng này</t>
+  </si>
+  <si>
+    <t>Fix cuối tuần là chủ nhật</t>
+  </si>
+  <si>
+    <t>Fix làm tròn xuống</t>
   </si>
 </sst>
 </file>
@@ -746,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,13 +759,13 @@
     <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
     <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -777,214 +780,214 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -1006,10 +1009,10 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -1020,10 +1023,10 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="28"/>
     </row>
@@ -1034,10 +1037,10 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22" s="28"/>
     </row>
@@ -1048,384 +1051,350 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C24" s="10"/>
       <c r="D24" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="C26" s="10"/>
       <c r="D26" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>17</v>
-      </c>
       <c r="E28" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="28"/>
+        <v>16</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>3</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C32" s="9"/>
       <c r="D32" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C33" s="9"/>
       <c r="D33" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C34" s="9"/>
       <c r="D34" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C35" s="12"/>
       <c r="D35" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>30</v>
-      </c>
       <c r="E36" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="D37" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="C38" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="D38" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="28"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F39" s="28"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40" s="28"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C41" s="10"/>
       <c r="D41" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F43" s="28"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B44" s="14"/>
-      <c r="C44" s="4" t="s">
-        <v>11</v>
+      <c r="C44" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B45" s="21"/>
-      <c r="C45" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="C45" s="15"/>
       <c r="D45" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>3</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C46" s="31"/>
       <c r="D46" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F46" s="17"/>
     </row>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
   <si>
     <t>Form</t>
   </si>
@@ -437,7 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -464,6 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F46"/>
+  <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,10 +773,10 @@
       <c r="E2" s="32"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -785,7 +785,7 @@
       <c r="D4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -793,326 +793,330 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="28"/>
+      <c r="E5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="28"/>
+      <c r="E6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="28"/>
+      <c r="E7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="28"/>
+      <c r="E8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="28"/>
+      <c r="E9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="28"/>
+      <c r="E10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="28"/>
+      <c r="E11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="28"/>
+      <c r="E12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="28"/>
+      <c r="E13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="28"/>
+      <c r="E14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="28"/>
+      <c r="E15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="28"/>
+      <c r="E16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="28"/>
+      <c r="E17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="16"/>
+      <c r="E20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="28"/>
+      <c r="E21" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="28"/>
+      <c r="E22" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="28"/>
+      <c r="E23" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="28"/>
+      <c r="E24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="28"/>
+      <c r="E25" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="28"/>
+      <c r="E26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="29"/>
+      <c r="E27" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -1121,282 +1125,292 @@
       <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="28" t="s">
+      <c r="E28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="27" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="27" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="27" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="27" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="27" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="27" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
+      <c r="E37" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="27" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9" t="s">
+      <c r="E38" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C39" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D39" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9" t="s">
+      <c r="E39" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="27" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9" t="s">
+      <c r="E40" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="27" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
+      <c r="E41" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="27" t="s">
+      <c r="C42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9" t="s">
+      <c r="E42" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="27" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="28"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12" t="s">
+      <c r="E43" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="27" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="E44" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="26" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="E45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="4" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17" t="s">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B47" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="4" t="s">
+      <c r="C47" s="30"/>
+      <c r="D47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="17"/>
+      <c r="F47" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ATInnovation\Github\PhamMemChamCong\HeThongChamCong\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AT-Git\HeThongChamCong\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t>Form</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Fix làm tròn xuống</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu quan hệ chưa được hoàn thành,  nên chưa viết được stored procedure</t>
   </si>
 </sst>
 </file>
@@ -749,21 +752,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
+    <col min="6" max="6" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="32" t="s">
         <v>55</v>
       </c>
@@ -772,7 +775,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -792,7 +795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>51</v>
       </c>
@@ -810,7 +813,7 @@
       </c>
       <c r="F5" s="27"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="25" t="s">
         <v>39</v>
@@ -824,7 +827,7 @@
       </c>
       <c r="F6" s="27"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
         <v>40</v>
@@ -838,7 +841,7 @@
       </c>
       <c r="F7" s="27"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="25" t="s">
         <v>41</v>
@@ -852,7 +855,7 @@
       </c>
       <c r="F8" s="27"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>42</v>
@@ -866,7 +869,7 @@
       </c>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="25" t="s">
         <v>43</v>
@@ -880,7 +883,7 @@
       </c>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
         <v>44</v>
@@ -894,7 +897,7 @@
       </c>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="25" t="s">
         <v>45</v>
@@ -908,7 +911,7 @@
       </c>
       <c r="F12" s="27"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="25" t="s">
         <v>46</v>
@@ -922,7 +925,7 @@
       </c>
       <c r="F13" s="27"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
         <v>47</v>
@@ -936,7 +939,7 @@
       </c>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="25" t="s">
         <v>48</v>
@@ -950,7 +953,7 @@
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="25" t="s">
         <v>49</v>
@@ -964,7 +967,7 @@
       </c>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="25" t="s">
         <v>50</v>
@@ -978,7 +981,7 @@
       </c>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="25" t="s">
         <v>52</v>
@@ -992,7 +995,7 @@
       <c r="E18" s="26"/>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1000,7 +1003,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1019,7 @@
       </c>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
@@ -1030,7 +1033,7 @@
       </c>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
         <v>7</v>
@@ -1044,7 +1047,7 @@
       </c>
       <c r="F22" s="27"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
         <v>8</v>
@@ -1058,7 +1061,7 @@
       </c>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
         <v>9</v>
@@ -1072,7 +1075,7 @@
       </c>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
         <v>10</v>
@@ -1088,7 +1091,7 @@
       </c>
       <c r="F25" s="27"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
         <v>11</v>
@@ -1102,7 +1105,7 @@
       </c>
       <c r="F26" s="27"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
         <v>12</v>
@@ -1118,7 +1121,7 @@
       </c>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="14" t="s">
         <v>17</v>
@@ -1152,7 +1155,7 @@
       </c>
       <c r="F29" s="27"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="14" t="s">
         <v>18</v>
@@ -1164,9 +1167,11 @@
       <c r="E30" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="27"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="14" t="s">
         <v>19</v>
@@ -1178,9 +1183,11 @@
       <c r="E31" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="27"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="14" t="s">
         <v>20</v>
@@ -1194,7 +1201,7 @@
       </c>
       <c r="F32" s="27"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="14" t="s">
         <v>21</v>
@@ -1210,7 +1217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="14" t="s">
         <v>22</v>
@@ -1226,7 +1233,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="14" t="s">
         <v>23</v>
@@ -1240,7 +1247,7 @@
       </c>
       <c r="F35" s="27"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>24</v>
       </c>
@@ -1250,7 +1257,7 @@
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="14" t="s">
         <v>25</v>
@@ -1264,7 +1271,7 @@
       </c>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="14" t="s">
         <v>26</v>
@@ -1278,7 +1285,7 @@
       </c>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="14" t="s">
         <v>28</v>
@@ -1294,7 +1301,7 @@
       </c>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="14" t="s">
         <v>29</v>
@@ -1308,7 +1315,7 @@
       </c>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="14" t="s">
         <v>30</v>
@@ -1322,7 +1329,7 @@
       </c>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="14" t="s">
         <v>31</v>
@@ -1338,7 +1345,7 @@
       </c>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="14" t="s">
         <v>32</v>
@@ -1352,7 +1359,7 @@
       </c>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="11" t="s">
         <v>33</v>
@@ -1366,7 +1373,7 @@
       </c>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
@@ -1382,7 +1389,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1403,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>36</v>
       </c>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AT-Git\HeThongChamCong\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
   <si>
     <t>Form</t>
   </si>
@@ -530,7 +525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,7 +560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -752,21 +747,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" customWidth="1"/>
-    <col min="6" max="6" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>55</v>
       </c>
@@ -775,7 +770,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -795,7 +790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>51</v>
       </c>
@@ -813,7 +808,7 @@
       </c>
       <c r="F5" s="27"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="25" t="s">
         <v>39</v>
@@ -827,7 +822,7 @@
       </c>
       <c r="F6" s="27"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
         <v>40</v>
@@ -841,7 +836,7 @@
       </c>
       <c r="F7" s="27"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25" t="s">
         <v>41</v>
@@ -855,7 +850,7 @@
       </c>
       <c r="F8" s="27"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>42</v>
@@ -869,7 +864,7 @@
       </c>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="25" t="s">
         <v>43</v>
@@ -883,7 +878,7 @@
       </c>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
         <v>44</v>
@@ -897,7 +892,7 @@
       </c>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="25" t="s">
         <v>45</v>
@@ -911,7 +906,7 @@
       </c>
       <c r="F12" s="27"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="25" t="s">
         <v>46</v>
@@ -925,7 +920,7 @@
       </c>
       <c r="F13" s="27"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
         <v>47</v>
@@ -939,7 +934,7 @@
       </c>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="25" t="s">
         <v>48</v>
@@ -953,7 +948,7 @@
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="25" t="s">
         <v>49</v>
@@ -967,7 +962,7 @@
       </c>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="25" t="s">
         <v>50</v>
@@ -981,7 +976,7 @@
       </c>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="25" t="s">
         <v>52</v>
@@ -995,7 +990,7 @@
       <c r="E18" s="26"/>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1003,7 +998,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1015,11 +1010,11 @@
         <v>56</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
@@ -1029,11 +1024,11 @@
         <v>56</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
         <v>7</v>
@@ -1043,11 +1038,11 @@
         <v>56</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F22" s="27"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
         <v>8</v>
@@ -1057,11 +1052,11 @@
         <v>56</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
         <v>9</v>
@@ -1070,12 +1065,10 @@
       <c r="D24" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>16</v>
-      </c>
+      <c r="E24" s="27"/>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
         <v>10</v>
@@ -1086,12 +1079,10 @@
       <c r="D25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>16</v>
-      </c>
+      <c r="E25" s="27"/>
       <c r="F25" s="27"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
         <v>11</v>
@@ -1100,12 +1091,10 @@
       <c r="D26" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="27" t="s">
-        <v>16</v>
-      </c>
+      <c r="E26" s="27"/>
       <c r="F26" s="27"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
         <v>12</v>
@@ -1116,12 +1105,10 @@
       <c r="D27" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="E27" s="27"/>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="14" t="s">
         <v>17</v>
@@ -1155,7 +1142,7 @@
       </c>
       <c r="F29" s="27"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="14" t="s">
         <v>18</v>
@@ -1171,7 +1158,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="14" t="s">
         <v>19</v>
@@ -1187,7 +1174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="14" t="s">
         <v>20</v>
@@ -1201,7 +1188,7 @@
       </c>
       <c r="F32" s="27"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="14" t="s">
         <v>21</v>
@@ -1217,7 +1204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="14" t="s">
         <v>22</v>
@@ -1233,7 +1220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="14" t="s">
         <v>23</v>
@@ -1247,7 +1234,7 @@
       </c>
       <c r="F35" s="27"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>24</v>
       </c>
@@ -1257,7 +1244,7 @@
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="14" t="s">
         <v>25</v>
@@ -1271,7 +1258,7 @@
       </c>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="14" t="s">
         <v>26</v>
@@ -1285,7 +1272,7 @@
       </c>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="14" t="s">
         <v>28</v>
@@ -1301,7 +1288,7 @@
       </c>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="14" t="s">
         <v>29</v>
@@ -1315,7 +1302,7 @@
       </c>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="14" t="s">
         <v>30</v>
@@ -1329,7 +1316,7 @@
       </c>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="14" t="s">
         <v>31</v>
@@ -1345,7 +1332,7 @@
       </c>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="14" t="s">
         <v>32</v>
@@ -1359,7 +1346,7 @@
       </c>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="11" t="s">
         <v>33</v>
@@ -1373,7 +1360,7 @@
       </c>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
@@ -1389,7 +1376,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>35</v>
       </c>
@@ -1403,7 +1390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>36</v>
       </c>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ATInnovation\Github\PhamMemChamCong\HeThongChamCong\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>Form</t>
   </si>
@@ -30,9 +35,6 @@
     <t>Tiến độ</t>
   </si>
   <si>
-    <t>Làm</t>
-  </si>
-  <si>
     <t>Máy chấm công</t>
   </si>
   <si>
@@ -165,9 +167,6 @@
     <t>Khai báo trình độ học vấn</t>
   </si>
   <si>
-    <t>Khai báo giới tính</t>
-  </si>
-  <si>
     <t>Kết nối cơ sở dữ liệu</t>
   </si>
   <si>
@@ -223,6 +222,18 @@
   </si>
   <si>
     <t>Cơ sở dữ liệu quan hệ chưa được hoàn thành,  nên chưa viết được stored procedure</t>
+  </si>
+  <si>
+    <t>xong front-end  - Đang làm backend</t>
+  </si>
+  <si>
+    <t>Khai báo server RabbitMQ</t>
+  </si>
+  <si>
+    <t>Yêu cầu mới</t>
+  </si>
+  <si>
+    <t>Thái làm kết nối và lấy ra dữ liệu theo các command status trước khi Sáng làm</t>
   </si>
 </sst>
 </file>
@@ -737,7 +748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F47"/>
+  <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,12 +769,12 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -778,187 +789,185 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>53</v>
-      </c>
       <c r="E5" s="31" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F16" s="27"/>
     </row>
@@ -969,173 +978,167 @@
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>16</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E17" s="26"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="26"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="9"/>
+      <c r="B23" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="D23" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>60</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E23" s="27"/>
       <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>63</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>64</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="14"/>
+      <c r="B29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="26" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>58</v>
@@ -1145,266 +1148,324 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D30" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>66</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F34" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="27"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="26"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="26"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="26"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="B40" s="31"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="26"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>63</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C42" s="9"/>
       <c r="D42" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="26"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="11" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="26"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="B51" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="16"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
   <si>
     <t>Form</t>
   </si>
@@ -227,7 +227,7 @@
     <t>Fix làm tròn xuống</t>
   </si>
   <si>
-    <t>Cơ sở dữ liệu quan hệ chưa được hoàn thành,  nên chưa viết được stored procedure</t>
+    <t>xong front-end -Xong backend</t>
   </si>
 </sst>
 </file>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,11 +1165,9 @@
         <v>15</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="27" t="s">
         <v>67</v>
       </c>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -1183,9 +1181,7 @@
       <c r="E31" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="27" t="s">
-        <v>67</v>
-      </c>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -752,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1179,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F31" s="27"/>
     </row>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -206,9 +206,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>xong front-end - Đang làm backend</t>
-  </si>
-  <si>
     <t>Chỉnh sửa trong quá trình xây dựng các form khác</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>xong front-end -Xong backend</t>
+  </si>
+  <si>
+    <t>xong front-end -??</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +987,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>53</v>
@@ -1081,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>56</v>
@@ -1111,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>56</v>
@@ -1129,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>15</v>
@@ -1138,7 +1138,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1165,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="27"/>
     </row>
@@ -1193,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" s="27"/>
     </row>
@@ -1207,10 +1207,10 @@
         <v>15</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1223,10 +1223,10 @@
         <v>15</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1239,7 +1239,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F35" s="27"/>
     </row>
@@ -1287,7 +1287,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>27</v>
@@ -1331,7 +1331,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>27</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>15</v>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
         <v>27</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47" s="16"/>
     </row>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
   <si>
     <t>Form</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>xong front-end -??</t>
+  </si>
+  <si>
+    <t>xong front-end - 75%backend</t>
+  </si>
+  <si>
+    <t>chưa tính công được</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1277,9 +1283,11 @@
         <v>27</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="26"/>
+        <v>68</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
   <si>
     <t>Form</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>chưa tính công được</t>
+  </si>
+  <si>
+    <t>Xem Hình Chấm Công</t>
+  </si>
+  <si>
+    <t>Cần chú ý vì hình được lưu thẳng vào db dạng binary</t>
   </si>
 </sst>
 </file>
@@ -758,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,11 +1259,19 @@
       <c r="A36" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="31" t="s">
+        <v>70</v>
+      </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="D36" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>Form</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Cần chú ý vì hình được lưu thẳng vào db dạng binary</t>
+  </si>
+  <si>
+    <t>xong front-end- Xong Backend</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1297,7 @@
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="26" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>68</v>
@@ -1340,10 +1343,10 @@
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="26" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F41" s="26"/>
     </row>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>Form</t>
   </si>
@@ -233,9 +233,6 @@
     <t>xong front-end - 75%backend</t>
   </si>
   <si>
-    <t>chưa tính công được</t>
-  </si>
-  <si>
     <t>Xem Hình Chấm Công</t>
   </si>
   <si>
@@ -243,6 +240,12 @@
   </si>
   <si>
     <t>xong front-end- Xong Backend</t>
+  </si>
+  <si>
+    <t>xong front-end-Xong Backend</t>
+  </si>
+  <si>
+    <t>chưa tính công</t>
   </si>
 </sst>
 </file>
@@ -768,7 +771,7 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1266,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="31" t="s">
@@ -1273,7 +1276,7 @@
         <v>58</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1283,7 +1286,7 @@
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="26" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>16</v>
@@ -1303,7 +1306,7 @@
         <v>68</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1315,7 +1318,7 @@
         <v>62</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>16</v>
@@ -1329,7 +1332,7 @@
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="26" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>16</v>
@@ -1346,7 +1349,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="26"/>
     </row>
@@ -1359,10 +1362,10 @@
         <v>62</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F42" s="26"/>
     </row>
@@ -1373,7 +1376,7 @@
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="26" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>16</v>
@@ -1387,7 +1390,7 @@
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>16</v>

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
   <si>
     <t>Form</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Chấm công theo ca</t>
   </si>
   <si>
-    <t>Dũng</t>
-  </si>
-  <si>
     <t>Chấm công không theo ca</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Chỉnh sửa trong quá trình xây dựng các form khác</t>
-  </si>
-  <si>
     <t>Chỉ cần làm thông tin giới thiệu phần mềm, phiên bản, tính năng, số điện thoại</t>
   </si>
   <si>
@@ -246,6 +240,18 @@
   </si>
   <si>
     <t>chưa tính công</t>
+  </si>
+  <si>
+    <t>Tạm chưa làm vì chưa cần lắm!!</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>Chưa đụng đến</t>
+  </si>
+  <si>
+    <t>sau khi hoàn thiện các chức năng thì tiến hành merge</t>
   </si>
 </sst>
 </file>
@@ -771,7 +777,7 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +792,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -801,30 +807,30 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>16</v>
@@ -834,11 +840,11 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>16</v>
@@ -848,11 +854,11 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>16</v>
@@ -862,11 +868,11 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>16</v>
@@ -876,11 +882,11 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>16</v>
@@ -890,11 +896,11 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>16</v>
@@ -904,11 +910,11 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>16</v>
@@ -918,11 +924,11 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>16</v>
@@ -932,11 +938,11 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>16</v>
@@ -946,11 +952,11 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>16</v>
@@ -960,11 +966,11 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>16</v>
@@ -974,11 +980,11 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>16</v>
@@ -988,11 +994,11 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>16</v>
@@ -1002,13 +1008,13 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>53</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="27"/>
@@ -1030,7 +1036,7 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="27" t="s">
         <v>16</v>
@@ -1044,7 +1050,7 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>16</v>
@@ -1058,7 +1064,7 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>16</v>
@@ -1072,7 +1078,7 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>16</v>
@@ -1086,7 +1092,7 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>16</v>
@@ -1099,10 +1105,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>16</v>
@@ -1116,7 +1122,7 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>16</v>
@@ -1129,10 +1135,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>16</v>
@@ -1147,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>15</v>
@@ -1156,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1169,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="27"/>
     </row>
@@ -1183,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F30" s="27"/>
     </row>
@@ -1197,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="27"/>
     </row>
@@ -1211,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="27"/>
     </row>
@@ -1225,10 +1231,10 @@
         <v>15</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1241,10 +1247,10 @@
         <v>15</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1257,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" s="27"/>
     </row>
@@ -1266,17 +1272,17 @@
         <v>24</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="31" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1303,19 +1309,19 @@
         <v>15</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>15</v>
@@ -1328,82 +1334,90 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="D40" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="26"/>
+      <c r="F40" s="26" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="D44" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="26"/>
+      <c r="F44" s="26" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>15</v>
@@ -1415,33 +1429,33 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>36</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>37</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="4" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="16"/>
+        <v>74</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/Tiến độ code các chức năng.xlsx
+++ b/Document/Tiến độ code các chức năng.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="78">
   <si>
     <t>Form</t>
   </si>
@@ -239,9 +239,6 @@
     <t>xong front-end-Xong Backend</t>
   </si>
   <si>
-    <t>chưa tính công</t>
-  </si>
-  <si>
     <t>Tạm chưa làm vì chưa cần lắm!!</t>
   </si>
   <si>
@@ -252,6 +249,15 @@
   </si>
   <si>
     <t>sau khi hoàn thiện các chức năng thì tiến hành merge</t>
+  </si>
+  <si>
+    <t>xong front-end -Xong Backend</t>
+  </si>
+  <si>
+    <t>Chỉnh lại tên thành "Chấm công vắng"</t>
+  </si>
+  <si>
+    <t>đang làm tiếp</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,9 +1301,11 @@
         <v>15</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
@@ -1312,7 +1320,7 @@
         <v>66</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1336,18 +1344,14 @@
       <c r="B40" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="C40" s="9"/>
       <c r="D40" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>72</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
@@ -1408,7 +1412,7 @@
         <v>16</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1448,13 +1452,13 @@
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="F47" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
